--- a/Docs/lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/lab1/Lab01_ReviewReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -88,18 +88,33 @@
     <t xml:space="preserve">Comments/ improvements</t>
   </si>
   <si>
-    <t xml:space="preserve">F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerinta trebuie sa ofere clarificari suplimentare cu privire la gestionarea task-urilor repetitive. Modul in care se gestioneaza intervalul de timp pentru taskurile repetitive nu este specificat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F04</t>
+    <t xml:space="preserve">R01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/F01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerinta trebuie sa ofere clarificari suplimentare cu privire la gestionarea task-urilor repetitive. Specific, daca se permit taskuri repetitive cu intervale nedeterminate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/F04</t>
   </si>
   <si>
     <t xml:space="preserve">Cerinta trebuie sa specifice modul in care sunt modificate detaliile unui task repetitiv, specific daca se modifica toate instantele unui task sau una specifica.</t>
   </si>
   <si>
+    <t xml:space="preserve">R07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerinta specifica sursa informatiilor dar nu specifica cum se face distinctia dintre ele.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Effort to review document (hours):</t>
   </si>
   <si>
@@ -215,6 +230,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tool used:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SonarQube</t>
   </si>
   <si>
     <t xml:space="preserve">File, Line</t>
@@ -354,10 +372,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,19 +447,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -530,7 +536,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -599,6 +605,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -633,18 +643,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -910,8 +908,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1033,11 +1031,11 @@
       <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="15" t="n">
-        <v>1</v>
+      <c r="D10" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,23 +1044,29 @@
         <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="n">
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="n">
@@ -1116,7 +1120,7 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
@@ -1125,7 +1129,7 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
@@ -1134,7 +1138,7 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
@@ -1143,7 +1147,7 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="17"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
@@ -1152,7 +1156,7 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
@@ -1161,7 +1165,7 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="17"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
@@ -1170,7 +1174,7 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
@@ -1179,15 +1183,15 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="17"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="20"/>
       <c r="E27" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1222,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1245,7 +1249,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1270,13 +1274,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="21"/>
+      <c r="D4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="22"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1288,13 +1292,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="22"/>
+      <c r="C5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="23"/>
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1335,13 +1339,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,13 +1354,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,13 +1369,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,12 +1505,12 @@
       <c r="E26" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="20"/>
       <c r="E28" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1569,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1590,13 +1594,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="24"/>
+      <c r="D4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="25"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1608,13 +1612,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="26"/>
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1655,13 +1659,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,13 +1674,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,13 +1689,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,13 +1704,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,13 +1719,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1730,13 +1734,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,13 +1749,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,13 +1764,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,12 +1891,12 @@
       <c r="E30" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="20"/>
       <c r="E32" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1922,8 +1926,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1952,7 +1956,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1977,11 +1981,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="25"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
@@ -2017,33 +2023,33 @@
         <v>17</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="941.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>71</v>
+      <c r="C10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,17 +2057,17 @@
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>75</v>
+      <c r="C11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,17 +2075,17 @@
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>75</v>
+      <c r="C12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2087,17 +2093,17 @@
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>80</v>
+      <c r="C13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,17 +2111,17 @@
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>83</v>
+      <c r="C14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,12 +2285,14 @@
       <c r="F30" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
+      <c r="C32" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
